--- a/宏观经济/eta/美国10年通胀预期Trend_F0.1_月度数据.xlsx
+++ b/宏观经济/eta/美国10年通胀预期Trend_F0.1_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>2.36347</v>
+        <v>2.36298</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.35825</v>
+        <v>2.35781</v>
       </c>
       <c r="C3" t="n">
-        <v>2.35955</v>
+        <v>2.35884</v>
       </c>
     </row>
     <row r="4">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.3538</v>
+        <v>2.35316</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.34836</v>
+        <v>2.34778</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.343</v>
+        <v>2.34248</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.33749</v>
+        <v>2.33702</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.33257</v>
+        <v>2.33216</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.32751</v>
+        <v>2.32715</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.32256</v>
+        <v>2.32225</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
@@ -558,7 +558,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.31776</v>
+        <v>2.31749</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
@@ -569,7 +569,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.31356</v>
+        <v>2.31334</v>
       </c>
       <c r="C12" t="inlineStr"/>
     </row>
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.30911</v>
+        <v>2.30893</v>
       </c>
       <c r="C13" t="inlineStr"/>
     </row>
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.30484</v>
+        <v>2.30471</v>
       </c>
       <c r="C14" t="inlineStr"/>
     </row>
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.30109</v>
+        <v>2.30098</v>
       </c>
       <c r="C15" t="inlineStr"/>
     </row>
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.29676</v>
+        <v>2.29666</v>
       </c>
       <c r="C16" t="inlineStr"/>
     </row>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.29278</v>
+        <v>2.29277</v>
       </c>
       <c r="C17" t="inlineStr"/>
     </row>
@@ -635,7 +635,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.2908</v>
+        <v>2.29079</v>
       </c>
       <c r="C18" t="inlineStr"/>
     </row>
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.2882</v>
+        <v>2.28819</v>
       </c>
       <c r="C20" t="inlineStr"/>
     </row>
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.33393</v>
+        <v>2.33392</v>
       </c>
       <c r="C35" t="inlineStr"/>
     </row>
